--- a/citrabuahnagaNaiveBayes/EXCEL HITUNG MANUAL PROJECT/stepHitungManualKlasifikasiBuahNaga.xlsx
+++ b/citrabuahnagaNaiveBayes/EXCEL HITUNG MANUAL PROJECT/stepHitungManualKlasifikasiBuahNaga.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TUGAS KULIAH\SEMESTER 5\WORKSHOP SISTEM CERDAS\EXCEL HITUNG MANUAL PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\MATLAB\Semester_5_Citra_Visual_Buah_Naga\citrabuahnagaNaiveBayes\EXCEL HITUNG MANUAL PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC99BD38-B2E2-468E-940A-69E5F8DFEAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03A7282-78D7-44F2-A065-3FAE14C71A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -263,6 +263,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -275,8 +277,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,22 +621,22 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
-        <v>0.63645896092649701</v>
+        <v>0.51654736868564599</v>
       </c>
       <c r="D7" s="3">
-        <v>0.58669565172403504</v>
+        <v>0.225967637122094</v>
       </c>
       <c r="E7" s="3">
-        <v>0.58711783614155999</v>
+        <v>0.218921722924489</v>
       </c>
       <c r="F7" s="3">
-        <v>0.29989597873535101</v>
+        <v>0.484506495557122</v>
       </c>
       <c r="G7" s="3">
-        <v>0.101562701173253</v>
+        <v>0.58753941132237497</v>
       </c>
       <c r="H7" s="3">
-        <v>0.63759012876198495</v>
+        <v>0.51692489033408195</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>9</v>
@@ -648,22 +648,22 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
-        <v>0.62712331030843504</v>
+        <v>0.44854636970110301</v>
       </c>
       <c r="D8" s="3">
-        <v>0.58585202578411999</v>
+        <v>0.18271764070295901</v>
       </c>
       <c r="E8" s="3">
-        <v>0.58703865077859096</v>
+        <v>0.185107040098174</v>
       </c>
       <c r="F8" s="3">
-        <v>0.22914830533036201</v>
+        <v>0.66721167013762395</v>
       </c>
       <c r="G8" s="3">
-        <v>9.4730369057678093E-2</v>
+        <v>0.60893756463702398</v>
       </c>
       <c r="H8" s="3">
-        <v>0.62764950004509001</v>
+        <v>0.44862752431729402</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>9</v>
@@ -675,22 +675,22 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
-        <v>0.63315588768226905</v>
+        <v>0.47175886353064</v>
       </c>
       <c r="D9" s="3">
-        <v>0.58656897662280505</v>
+        <v>0.171757164918274</v>
       </c>
       <c r="E9" s="3">
-        <v>0.59066399015547699</v>
+        <v>0.19040147444413399</v>
       </c>
       <c r="F9" s="3">
-        <v>0.27693750469605799</v>
+        <v>0.81815973162025402</v>
       </c>
       <c r="G9" s="3">
-        <v>0.100481261330035</v>
+        <v>0.64071222369550695</v>
       </c>
       <c r="H9" s="3">
-        <v>0.63409533524404005</v>
+        <v>0.47176566284022098</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>9</v>
@@ -702,22 +702,22 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
-        <v>0.62749132559752896</v>
+        <v>0.47753681954953198</v>
       </c>
       <c r="D10" s="3">
-        <v>0.58289331443298498</v>
+        <v>0.220333853640344</v>
       </c>
       <c r="E10" s="3">
-        <v>0.58468875791640296</v>
+        <v>0.22557752574467099</v>
       </c>
       <c r="F10" s="3">
-        <v>0.28379226188157203</v>
+        <v>0.66885786735756403</v>
       </c>
       <c r="G10" s="3">
-        <v>9.8147690860081405E-2</v>
+        <v>0.56481351339195796</v>
       </c>
       <c r="H10" s="3">
-        <v>0.62805314022977798</v>
+        <v>0.47764161514901898</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>9</v>
@@ -729,22 +729,22 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
-        <v>0.62835835088256398</v>
+        <v>0.46037588380996203</v>
       </c>
       <c r="D11" s="3">
-        <v>0.58232467671997901</v>
+        <v>0.19027904729123901</v>
       </c>
       <c r="E11" s="3">
-        <v>0.58568958431872997</v>
+        <v>0.194529256597269</v>
       </c>
       <c r="F11" s="3">
-        <v>0.49733825489528499</v>
+        <v>0.68186746498051998</v>
       </c>
       <c r="G11" s="3">
-        <v>0.106804475397124</v>
+        <v>0.61842633838014904</v>
       </c>
       <c r="H11" s="3">
-        <v>0.630268617956662</v>
+        <v>0.460603948237025</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>9</v>
@@ -756,22 +756,22 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
-        <v>0.62112817322000702</v>
+        <v>0.45675215724115198</v>
       </c>
       <c r="D12" s="3">
-        <v>0.58009703639983601</v>
+        <v>0.206004465868911</v>
       </c>
       <c r="E12" s="3">
-        <v>0.58027159972146403</v>
+        <v>0.197177486139061</v>
       </c>
       <c r="F12" s="3">
-        <v>0.35627429465381699</v>
+        <v>0.55762932569451196</v>
       </c>
       <c r="G12" s="3">
-        <v>9.5562741945140806E-2</v>
+        <v>0.58735127268322995</v>
       </c>
       <c r="H12" s="3">
-        <v>0.62180855850823802</v>
+        <v>0.45688346141288599</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>9</v>
@@ -783,22 +783,22 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">
-        <v>0.628193833310426</v>
+        <v>0.476136829379806</v>
       </c>
       <c r="D13" s="3">
-        <v>0.58490943554631303</v>
+        <v>0.198412100014286</v>
       </c>
       <c r="E13" s="3">
-        <v>0.58744024374278303</v>
+        <v>0.199271140879514</v>
       </c>
       <c r="F13" s="3">
-        <v>0.396504618958953</v>
+        <v>0.72494590608062304</v>
       </c>
       <c r="G13" s="3">
-        <v>9.9421104788008599E-2</v>
+        <v>0.62421518922061203</v>
       </c>
       <c r="H13" s="3">
-        <v>0.63016744645288003</v>
+        <v>0.47617327948000998</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>9</v>
@@ -810,22 +810,22 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3">
-        <v>0.60099709785385502</v>
+        <v>0.41721140643577498</v>
       </c>
       <c r="D14" s="3">
-        <v>0.538236187924932</v>
+        <v>0.19469624332509</v>
       </c>
       <c r="E14" s="3">
-        <v>0.53521238918294201</v>
+        <v>0.180964713490884</v>
       </c>
       <c r="F14" s="3">
-        <v>0.30534926512839</v>
+        <v>0.65111145138543902</v>
       </c>
       <c r="G14" s="3">
-        <v>0.16901231267677799</v>
+        <v>0.59950511751067703</v>
       </c>
       <c r="H14" s="3">
-        <v>0.60166218676086702</v>
+        <v>0.41780761509192998</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>9</v>
@@ -837,22 +837,22 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3">
-        <v>0.62154680018455</v>
+        <v>0.44197821195918902</v>
       </c>
       <c r="D15" s="3">
-        <v>0.58276983903962198</v>
+        <v>0.20630875346268901</v>
       </c>
       <c r="E15" s="3">
-        <v>0.58199764287446498</v>
+        <v>0.18703498052067699</v>
       </c>
       <c r="F15" s="3">
-        <v>0.42686875283592801</v>
+        <v>0.341326590244179</v>
       </c>
       <c r="G15" s="3">
-        <v>9.5609729714681402E-2</v>
+        <v>0.57955096708133202</v>
       </c>
       <c r="H15" s="3">
-        <v>0.62288540685865001</v>
+        <v>0.44205215460977099</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>9</v>
@@ -864,22 +864,22 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3">
-        <v>0.64025951912071799</v>
+        <v>0.51282629178989603</v>
       </c>
       <c r="D16" s="3">
-        <v>0.54486768469149804</v>
+        <v>0.18488262576880901</v>
       </c>
       <c r="E16" s="3">
-        <v>0.55401553319663299</v>
+        <v>0.21235201219160799</v>
       </c>
       <c r="F16" s="3">
-        <v>0.56983640768437105</v>
+        <v>0.84713166534518802</v>
       </c>
       <c r="G16" s="3">
-        <v>0.191365735626639</v>
+        <v>0.66312467461052105</v>
       </c>
       <c r="H16" s="3">
-        <v>0.64037911042425499</v>
+        <v>0.51302972908125299</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>9</v>
@@ -891,22 +891,22 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3">
-        <v>0.63788337680325202</v>
+        <v>0.49753415440913101</v>
       </c>
       <c r="D17" s="3">
-        <v>0.56117222793855104</v>
+        <v>0.21039871825452899</v>
       </c>
       <c r="E17" s="3">
-        <v>0.56417305840717302</v>
+        <v>0.21703367788977301</v>
       </c>
       <c r="F17" s="3">
-        <v>0.398205414441551</v>
+        <v>0.69162391055252803</v>
       </c>
       <c r="G17" s="3">
-        <v>0.161224226349371</v>
+        <v>0.60422536784242797</v>
       </c>
       <c r="H17" s="3">
-        <v>0.63843356434890697</v>
+        <v>0.49753733598241201</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>9</v>
@@ -918,22 +918,22 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3">
-        <v>0.64072650092972405</v>
+        <v>0.49906260484901099</v>
       </c>
       <c r="D18" s="3">
-        <v>0.57895936026966699</v>
+        <v>0.18334730539101299</v>
       </c>
       <c r="E18" s="3">
-        <v>0.58566284601919605</v>
+        <v>0.211821395763993</v>
       </c>
       <c r="F18" s="3">
-        <v>0.48359414252139798</v>
+        <v>0.85206126576976704</v>
       </c>
       <c r="G18" s="3">
-        <v>0.12622244733735699</v>
+        <v>0.65220776418509296</v>
       </c>
       <c r="H18" s="3">
-        <v>0.64084944822315504</v>
+        <v>0.49907195345479199</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>9</v>
@@ -945,22 +945,22 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3">
-        <v>0.63293488934090003</v>
+        <v>0.490251959203446</v>
       </c>
       <c r="D19" s="3">
-        <v>0.57126742106223605</v>
+        <v>0.18179423494359401</v>
       </c>
       <c r="E19" s="3">
-        <v>0.57810987116135604</v>
+        <v>0.20938108805125</v>
       </c>
       <c r="F19" s="3">
-        <v>0.50974900168213799</v>
+        <v>0.84780362254969899</v>
       </c>
       <c r="G19" s="3">
-        <v>0.12895203038502001</v>
+        <v>0.65125110650320905</v>
       </c>
       <c r="H19" s="3">
-        <v>0.63321891007647302</v>
+        <v>0.490262935504861</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>9</v>
@@ -972,22 +972,22 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3">
-        <v>0.63798407575758698</v>
+        <v>0.49978829117343898</v>
       </c>
       <c r="D20" s="3">
-        <v>0.56359307061931996</v>
+        <v>0.17995954350284299</v>
       </c>
       <c r="E20" s="3">
-        <v>0.57336321045740402</v>
+        <v>0.216482393400969</v>
       </c>
       <c r="F20" s="3">
-        <v>0.48212476604180199</v>
+        <v>0.83607143538738804</v>
       </c>
       <c r="G20" s="3">
-        <v>0.15286385240560599</v>
+        <v>0.65876303623104204</v>
       </c>
       <c r="H20" s="3">
-        <v>0.63855974838386198</v>
+        <v>0.49980071246135199</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>9</v>
@@ -999,22 +999,22 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
-        <v>0.63717590806181501</v>
+        <v>0.51582992040967102</v>
       </c>
       <c r="D21" s="4">
-        <v>0.561474684768688</v>
+        <v>0.25086505986026802</v>
       </c>
       <c r="E21" s="4">
-        <v>0.55705872424217995</v>
+        <v>0.22615861215566599</v>
       </c>
       <c r="F21" s="4">
-        <v>0.65000677651628203</v>
+        <v>0.50521955896703696</v>
       </c>
       <c r="G21" s="4">
-        <v>0.16743611261456301</v>
+        <v>0.59976717658871104</v>
       </c>
       <c r="H21" s="4">
-        <v>0.63719653358611295</v>
+        <v>0.51583173332816801</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>10</v>
@@ -1026,22 +1026,22 @@
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
-        <v>0.664972942044465</v>
+        <v>0.60006526854956399</v>
       </c>
       <c r="D22" s="4">
-        <v>0.53310339506743798</v>
+        <v>0.29380023158235202</v>
       </c>
       <c r="E22" s="4">
-        <v>0.51228786219225597</v>
+        <v>0.24146507217094801</v>
       </c>
       <c r="F22" s="4">
-        <v>0.480124959427424</v>
+        <v>0.33636217031954602</v>
       </c>
       <c r="G22" s="4">
-        <v>0.26345897615484598</v>
+        <v>0.61536037265382504</v>
       </c>
       <c r="H22" s="4">
-        <v>0.66504586501622798</v>
+        <v>0.60006641270652605</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>10</v>
@@ -1053,22 +1053,22 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
-        <v>0.65885360888773004</v>
+        <v>0.57846143132836902</v>
       </c>
       <c r="D23" s="4">
-        <v>0.53089115482274996</v>
+        <v>0.25179857614286399</v>
       </c>
       <c r="E23" s="4">
-        <v>0.52741480184340706</v>
+        <v>0.238266428780882</v>
       </c>
       <c r="F23" s="4">
-        <v>0.50937743028305105</v>
+        <v>0.45933376938516501</v>
       </c>
       <c r="G23" s="4">
-        <v>0.24056362672513101</v>
+        <v>0.61653949397190699</v>
       </c>
       <c r="H23" s="4">
-        <v>0.65915845883270796</v>
+        <v>0.57846321638368803</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>10</v>
@@ -1080,22 +1080,22 @@
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
-        <v>0.64453509690861399</v>
+        <v>0.52327224680123896</v>
       </c>
       <c r="D24" s="4">
-        <v>0.56405964728012903</v>
+        <v>0.22636924329229299</v>
       </c>
       <c r="E24" s="4">
-        <v>0.56147191316988199</v>
+        <v>0.206876886973408</v>
       </c>
       <c r="F24" s="4">
-        <v>0.56461838768827299</v>
+        <v>0.51090899635338605</v>
       </c>
       <c r="G24" s="4">
-        <v>0.17410428080173901</v>
+        <v>0.64804833368658399</v>
       </c>
       <c r="H24" s="4">
-        <v>0.64534867299948695</v>
+        <v>0.52327314026052796</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>10</v>
@@ -1107,22 +1107,22 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
-        <v>0.65333654518823903</v>
+        <v>0.55413571435808395</v>
       </c>
       <c r="D25" s="4">
-        <v>0.53783364541780299</v>
+        <v>0.26806253641515798</v>
       </c>
       <c r="E25" s="4">
-        <v>0.51855386788371405</v>
+        <v>0.21917066200242399</v>
       </c>
       <c r="F25" s="4">
-        <v>0.54939589117233201</v>
+        <v>0.36484644596460902</v>
       </c>
       <c r="G25" s="4">
-        <v>0.25038701253699702</v>
+        <v>0.622797289815189</v>
       </c>
       <c r="H25" s="4">
-        <v>0.65335391026947298</v>
+        <v>0.55413592377781196</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>10</v>
@@ -1134,22 +1134,22 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
-        <v>0.647162168168119</v>
+        <v>0.54155712152315205</v>
       </c>
       <c r="D26" s="4">
-        <v>0.54551233990855097</v>
+        <v>0.22900952794711099</v>
       </c>
       <c r="E26" s="4">
-        <v>0.54462645930796805</v>
+        <v>0.221770440723731</v>
       </c>
       <c r="F26" s="4">
-        <v>0.49736472046437502</v>
+        <v>0.548400409254998</v>
       </c>
       <c r="G26" s="4">
-        <v>0.20330749773800399</v>
+        <v>0.63007948619172605</v>
       </c>
       <c r="H26" s="4">
-        <v>0.64721106888866897</v>
+        <v>0.54156024236515499</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>10</v>
@@ -1161,22 +1161,22 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
-        <v>0.65720937678389901</v>
+        <v>0.57224356867089998</v>
       </c>
       <c r="D27" s="4">
-        <v>0.56190091474278003</v>
+        <v>0.27156840873611199</v>
       </c>
       <c r="E27" s="4">
-        <v>0.55301355578828204</v>
+        <v>0.23649177821400699</v>
       </c>
       <c r="F27" s="4">
-        <v>0.52080473133518301</v>
+        <v>0.31370226809985202</v>
       </c>
       <c r="G27" s="4">
-        <v>0.18960222018895301</v>
+        <v>0.60483814413539005</v>
       </c>
       <c r="H27" s="4">
-        <v>0.65723962439266304</v>
+        <v>0.57224563696613095</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>10</v>
@@ -1188,22 +1188,22 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
-        <v>0.65281425953958405</v>
+        <v>0.56827748835888303</v>
       </c>
       <c r="D28" s="4">
-        <v>0.55923732533589998</v>
+        <v>0.27462089397781603</v>
       </c>
       <c r="E28" s="4">
-        <v>0.550075972137818</v>
+        <v>0.238332207557583</v>
       </c>
       <c r="F28" s="4">
-        <v>0.53100697965513299</v>
+        <v>0.31450681482269299</v>
       </c>
       <c r="G28" s="4">
-        <v>0.18793590694971901</v>
+        <v>0.59716402963395798</v>
       </c>
       <c r="H28" s="4">
-        <v>0.65284336651174801</v>
+        <v>0.56827854354465901</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>10</v>
@@ -1215,22 +1215,22 @@
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
-        <v>0.64508924038938897</v>
+        <v>0.54463533345614101</v>
       </c>
       <c r="D29" s="4">
-        <v>0.55847222630055304</v>
+        <v>0.26185162627820102</v>
       </c>
       <c r="E29" s="4">
-        <v>0.54740704247776195</v>
+        <v>0.21635342037545999</v>
       </c>
       <c r="F29" s="4">
-        <v>0.55732140621600201</v>
+        <v>0.28832036444785702</v>
       </c>
       <c r="G29" s="4">
-        <v>0.18555187254455099</v>
+        <v>0.61606614947997995</v>
       </c>
       <c r="H29" s="4">
-        <v>0.64520861615704805</v>
+        <v>0.54463585424095096</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>10</v>
@@ -1242,22 +1242,22 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
-        <v>0.65900108579345895</v>
+        <v>0.58550700056779004</v>
       </c>
       <c r="D30" s="4">
-        <v>0.54475810802918101</v>
+        <v>0.28331842120662698</v>
       </c>
       <c r="E30" s="4">
-        <v>0.52944360179915595</v>
+        <v>0.23551716374552001</v>
       </c>
       <c r="F30" s="4">
-        <v>0.55017399032024406</v>
+        <v>0.406245540863923</v>
       </c>
       <c r="G30" s="4">
-        <v>0.235040882500437</v>
+        <v>0.62682414316827795</v>
       </c>
       <c r="H30" s="4">
-        <v>0.65940161070701597</v>
+        <v>0.58550745188057796</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>10</v>
@@ -1269,22 +1269,22 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
-        <v>0.64881477580356095</v>
+        <v>0.55308930657155397</v>
       </c>
       <c r="D31" s="4">
-        <v>0.53660346884403498</v>
+        <v>0.24445676727916299</v>
       </c>
       <c r="E31" s="4">
-        <v>0.53216884928035701</v>
+        <v>0.22482027627995599</v>
       </c>
       <c r="F31" s="4">
-        <v>0.54482332556194202</v>
+        <v>0.49410570049324498</v>
       </c>
       <c r="G31" s="4">
-        <v>0.22875747804281399</v>
+        <v>0.62927543948917797</v>
       </c>
       <c r="H31" s="4">
-        <v>0.65002625704717498</v>
+        <v>0.55308970749048902</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>10</v>
@@ -1296,22 +1296,22 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
-        <v>0.65181091929269797</v>
+        <v>0.56173567001695301</v>
       </c>
       <c r="D32" s="4">
-        <v>0.54922175753501801</v>
+        <v>0.23500575531336301</v>
       </c>
       <c r="E32" s="4">
-        <v>0.54822264875365001</v>
+        <v>0.22458874035943699</v>
       </c>
       <c r="F32" s="4">
-        <v>0.62055502359224401</v>
+        <v>0.51076229006221596</v>
       </c>
       <c r="G32" s="4">
-        <v>0.19840078298901101</v>
+        <v>0.637026777296125</v>
       </c>
       <c r="H32" s="4">
-        <v>0.65213959150714595</v>
+        <v>0.56173692158958199</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>10</v>
@@ -1323,22 +1323,22 @@
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3">
-        <v>0.54594175329570205</v>
+        <v>0.31435259199272497</v>
       </c>
       <c r="D33" s="3">
-        <v>0.56697949403145398</v>
+        <v>0.36650478397415398</v>
       </c>
       <c r="E33" s="3">
-        <v>0.48390107094333301</v>
+        <v>0.15851494955752299</v>
       </c>
       <c r="F33" s="3">
-        <v>0.260715804413374</v>
+        <v>0.20450206032404</v>
       </c>
       <c r="G33" s="3">
-        <v>0.24237498445018099</v>
+        <v>0.58862457164576398</v>
       </c>
       <c r="H33" s="3">
-        <v>0.57291711414895896</v>
+        <v>0.376198189694327</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>11</v>
@@ -1350,22 +1350,22 @@
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3">
-        <v>0.53604085946952995</v>
+        <v>0.28148847147314998</v>
       </c>
       <c r="D34" s="3">
-        <v>0.55994019079391399</v>
+        <v>0.33981094281406798</v>
       </c>
       <c r="E34" s="3">
-        <v>0.48553877105094301</v>
+        <v>0.154507515663039</v>
       </c>
       <c r="F34" s="3">
-        <v>0.29199543918703003</v>
+        <v>0.21833341405995199</v>
       </c>
       <c r="G34" s="3">
-        <v>0.23817488447117299</v>
+        <v>0.57017734373023898</v>
       </c>
       <c r="H34" s="3">
-        <v>0.56530584239140502</v>
+        <v>0.347055466210969</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>11</v>
@@ -1377,22 +1377,22 @@
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3">
-        <v>0.52737428332052605</v>
+        <v>0.262028794918018</v>
       </c>
       <c r="D35" s="3">
-        <v>0.55064932941992695</v>
+        <v>0.31851526110559503</v>
       </c>
       <c r="E35" s="3">
-        <v>0.482422117823606</v>
+        <v>0.14838700708918601</v>
       </c>
       <c r="F35" s="3">
-        <v>0.29763830527505197</v>
+        <v>0.22152274795990001</v>
       </c>
       <c r="G35" s="3">
-        <v>0.23555494225471499</v>
+        <v>0.56298973593054102</v>
       </c>
       <c r="H35" s="3">
-        <v>0.55575075551157704</v>
+        <v>0.32542592654715802</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>11</v>
@@ -1404,22 +1404,22 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3">
-        <v>0.53254465645064297</v>
+        <v>0.29296945961860799</v>
       </c>
       <c r="D36" s="3">
-        <v>0.55907813468482204</v>
+        <v>0.35535057108012202</v>
       </c>
       <c r="E36" s="3">
-        <v>0.47507414943386</v>
+        <v>0.15477373503356201</v>
       </c>
       <c r="F36" s="3">
-        <v>0.25970052869413801</v>
+        <v>0.21822162635911599</v>
       </c>
       <c r="G36" s="3">
-        <v>0.25668196956265799</v>
+        <v>0.59472582653258399</v>
       </c>
       <c r="H36" s="3">
-        <v>0.56395922385619501</v>
+        <v>0.36230153696816803</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>11</v>
@@ -1431,22 +1431,22 @@
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3">
-        <v>0.56829987940619497</v>
+        <v>0.25266320958933303</v>
       </c>
       <c r="D37" s="3">
-        <v>0.57659180827901502</v>
+        <v>0.28258863823219599</v>
       </c>
       <c r="E37" s="3">
-        <v>0.53540709659134</v>
+        <v>0.126884573206276</v>
       </c>
       <c r="F37" s="3">
-        <v>0.33025582952910398</v>
+        <v>0.19667449605544901</v>
       </c>
       <c r="G37" s="3">
-        <v>0.169395945494758</v>
+        <v>0.58637032527719601</v>
       </c>
       <c r="H37" s="3">
-        <v>0.58314279387773404</v>
+        <v>0.29502936995312601</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>11</v>
@@ -1458,22 +1458,22 @@
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3">
-        <v>0.56239021007011702</v>
+        <v>0.26681557455454902</v>
       </c>
       <c r="D38" s="3">
-        <v>0.57269993323683599</v>
+        <v>0.301265170413067</v>
       </c>
       <c r="E38" s="3">
-        <v>0.52667772543477898</v>
+        <v>0.14608700932036101</v>
       </c>
       <c r="F38" s="3">
-        <v>0.28777608843865499</v>
+        <v>0.20202562935254001</v>
       </c>
       <c r="G38" s="3">
-        <v>0.178008832676981</v>
+        <v>0.56228873441832805</v>
       </c>
       <c r="H38" s="3">
-        <v>0.57896066533569901</v>
+        <v>0.31320644746429899</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>11</v>
@@ -1485,22 +1485,22 @@
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3">
-        <v>0.562609455978891</v>
+        <v>0.25342425824766401</v>
       </c>
       <c r="D39" s="3">
-        <v>0.57621974891470196</v>
+        <v>0.30272914045798999</v>
       </c>
       <c r="E39" s="3">
-        <v>0.53120280933165698</v>
+        <v>0.13913721923219499</v>
       </c>
       <c r="F39" s="3">
-        <v>0.28541400034269998</v>
+        <v>0.214666891124555</v>
       </c>
       <c r="G39" s="3">
-        <v>0.16969672099753</v>
+        <v>0.57586073718397202</v>
       </c>
       <c r="H39" s="3">
-        <v>0.58033550647937004</v>
+        <v>0.30815450673642503</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>11</v>
@@ -1512,22 +1512,22 @@
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
-        <v>0.58651715765017298</v>
+        <v>0.35199361906805798</v>
       </c>
       <c r="D40" s="4">
-        <v>0.58040045758637004</v>
+        <v>0.33483350005809598</v>
       </c>
       <c r="E40" s="4">
-        <v>0.54667998663573902</v>
+        <v>0.21074191125467501</v>
       </c>
       <c r="F40" s="4">
-        <v>0.25620695249492598</v>
+        <v>0.173681024323531</v>
       </c>
       <c r="G40" s="4">
-        <v>0.12748364072144899</v>
+        <v>0.44507862587139202</v>
       </c>
       <c r="H40" s="4">
-        <v>0.59297907582519205</v>
+        <v>0.37298315090847201</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>12</v>
@@ -1539,22 +1539,22 @@
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4">
-        <v>0.59133650431049001</v>
+        <v>0.37717785276146998</v>
       </c>
       <c r="D41" s="4">
-        <v>0.57844650487114202</v>
+        <v>0.34414337844168102</v>
       </c>
       <c r="E41" s="4">
-        <v>0.54003787750474697</v>
+        <v>0.21747658971248199</v>
       </c>
       <c r="F41" s="4">
-        <v>0.397798594517215</v>
+        <v>0.33980825038708701</v>
       </c>
       <c r="G41" s="4">
-        <v>0.16444014014001099</v>
+        <v>0.49642197254787801</v>
       </c>
       <c r="H41" s="4">
-        <v>0.60516961171815398</v>
+        <v>0.41731583012104301</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>12</v>
@@ -1566,22 +1566,22 @@
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
-        <v>0.58974959289920503</v>
+        <v>0.373891399318099</v>
       </c>
       <c r="D42" s="4">
-        <v>0.56543093319283699</v>
+        <v>0.30483868339579601</v>
       </c>
       <c r="E42" s="4">
-        <v>0.53824030903015596</v>
+        <v>0.21626064172487899</v>
       </c>
       <c r="F42" s="4">
-        <v>0.41213599299770098</v>
+        <v>0.32760577967605597</v>
       </c>
       <c r="G42" s="4">
-        <v>0.16182417852683001</v>
+        <v>0.46585446633300898</v>
       </c>
       <c r="H42" s="4">
-        <v>0.59953901690257105</v>
+        <v>0.396487732899164</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>12</v>
@@ -1593,22 +1593,22 @@
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4">
-        <v>0.58700818467125804</v>
+        <v>0.37849741824395999</v>
       </c>
       <c r="D43" s="4">
-        <v>0.573993360332128</v>
+        <v>0.34352214118347002</v>
       </c>
       <c r="E43" s="4">
-        <v>0.53656808466720396</v>
+        <v>0.221369386168042</v>
       </c>
       <c r="F43" s="4">
-        <v>0.39130631852627501</v>
+        <v>0.24651154152782701</v>
       </c>
       <c r="G43" s="4">
-        <v>0.16186969414302499</v>
+        <v>0.47366711791023902</v>
       </c>
       <c r="H43" s="4">
-        <v>0.60082990793310898</v>
+        <v>0.41398681445479601</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>12</v>
@@ -1620,22 +1620,22 @@
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4">
-        <v>0.60704145933698395</v>
+        <v>0.45170122410920399</v>
       </c>
       <c r="D44" s="4">
-        <v>0.549243141508588</v>
+        <v>0.308574290798453</v>
       </c>
       <c r="E44" s="4">
-        <v>0.51138071834782195</v>
+        <v>0.204691213645322</v>
       </c>
       <c r="F44" s="4">
-        <v>0.51548667120890301</v>
+        <v>0.31856064143409002</v>
       </c>
       <c r="G44" s="4">
-        <v>0.228274702822301</v>
+        <v>0.57347197410622197</v>
       </c>
       <c r="H44" s="4">
-        <v>0.61223349863712895</v>
+        <v>0.46091053344083599</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>12</v>
@@ -1647,22 +1647,22 @@
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4">
-        <v>0.58404210510395205</v>
+        <v>0.360109008164607</v>
       </c>
       <c r="D45" s="4">
-        <v>0.57548787795674305</v>
+        <v>0.33857757193966398</v>
       </c>
       <c r="E45" s="4">
-        <v>0.52634981833565997</v>
+        <v>0.17879143056271299</v>
       </c>
       <c r="F45" s="4">
-        <v>0.35122643637741802</v>
+        <v>0.24073342159748501</v>
       </c>
       <c r="G45" s="4">
-        <v>0.181738938747811</v>
+        <v>0.56435497961147396</v>
       </c>
       <c r="H45" s="4">
-        <v>0.59676587749760601</v>
+        <v>0.39824657544835601</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>12</v>
@@ -1674,22 +1674,22 @@
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4">
-        <v>0.58643017151793297</v>
+        <v>0.34424458523944801</v>
       </c>
       <c r="D46" s="4">
-        <v>0.57183158066557405</v>
+        <v>0.30560530907409</v>
       </c>
       <c r="E46" s="4">
-        <v>0.53067904826215295</v>
+        <v>0.170358390561275</v>
       </c>
       <c r="F46" s="4">
-        <v>0.37173656358941798</v>
+        <v>0.209142824466752</v>
       </c>
       <c r="G46" s="4">
-        <v>0.174803016836591</v>
+        <v>0.54500566909828196</v>
       </c>
       <c r="H46" s="4">
-        <v>0.59222185458912002</v>
+        <v>0.36200491296410398</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>12</v>
@@ -1701,22 +1701,22 @@
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4">
-        <v>0.58786321697717803</v>
+        <v>0.34031618468711999</v>
       </c>
       <c r="D47" s="4">
-        <v>0.56421088532394803</v>
+        <v>0.26077739196988498</v>
       </c>
       <c r="E47" s="4">
-        <v>0.53889280649417504</v>
+        <v>0.16641584510919599</v>
       </c>
       <c r="F47" s="4">
-        <v>0.321488745701275</v>
+        <v>0.20024591049698501</v>
       </c>
       <c r="G47" s="4">
-        <v>0.15559132964970501</v>
+        <v>0.53618838274521097</v>
       </c>
       <c r="H47" s="4">
-        <v>0.59203464427401398</v>
+        <v>0.35045592691925198</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>12</v>
@@ -1728,22 +1728,22 @@
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4">
-        <v>0.57811986802641901</v>
+        <v>0.31082138642040802</v>
       </c>
       <c r="D48" s="4">
-        <v>0.56894356952617597</v>
+        <v>0.28483329918136202</v>
       </c>
       <c r="E48" s="4">
-        <v>0.53444723681913098</v>
+        <v>0.15955711785238</v>
       </c>
       <c r="F48" s="4">
-        <v>0.32781018410921298</v>
+        <v>0.19133121008954901</v>
       </c>
       <c r="G48" s="4">
-        <v>0.161204032535779</v>
+        <v>0.53971515622308397</v>
       </c>
       <c r="H48" s="4">
-        <v>0.58741906419499401</v>
+        <v>0.33848696570675801</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>12</v>
@@ -1755,22 +1755,22 @@
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4">
-        <v>0.59502078941673997</v>
+        <v>0.40372401019709098</v>
       </c>
       <c r="D49" s="4">
-        <v>0.560829171111493</v>
+        <v>0.31445578293783699</v>
       </c>
       <c r="E49" s="4">
-        <v>0.51723888349734404</v>
+        <v>0.19024786818904499</v>
       </c>
       <c r="F49" s="4">
-        <v>0.36636294517492302</v>
+        <v>0.249611390294428</v>
       </c>
       <c r="G49" s="4">
-        <v>0.21035580148824801</v>
+        <v>0.56556879806276095</v>
       </c>
       <c r="H49" s="4">
-        <v>0.60157059956722203</v>
+        <v>0.41885338456375398</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>12</v>
@@ -1782,22 +1782,22 @@
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4">
-        <v>0.58821198513464601</v>
+        <v>0.35433614725978002</v>
       </c>
       <c r="D50" s="4">
-        <v>0.57437656460483699</v>
+        <v>0.30744043637998297</v>
       </c>
       <c r="E50" s="4">
-        <v>0.53410487178076205</v>
+        <v>0.16175483139914401</v>
       </c>
       <c r="F50" s="4">
-        <v>0.263399851708991</v>
+        <v>0.18959894443684899</v>
       </c>
       <c r="G50" s="4">
-        <v>0.169024876482608</v>
+        <v>0.57592662089126501</v>
       </c>
       <c r="H50" s="4">
-        <v>0.59468325430777003</v>
+        <v>0.370506019417843</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>12</v>
@@ -1809,22 +1809,22 @@
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4">
-        <v>0.58525976652405698</v>
+        <v>0.35544710624457998</v>
       </c>
       <c r="D51" s="4">
-        <v>0.57613806896467501</v>
+        <v>0.32567112306569301</v>
       </c>
       <c r="E51" s="4">
-        <v>0.53237443569550302</v>
+        <v>0.17114912055025</v>
       </c>
       <c r="F51" s="4">
-        <v>0.29870734382922498</v>
+        <v>0.196526447847022</v>
       </c>
       <c r="G51" s="4">
-        <v>0.17164173775962099</v>
+        <v>0.56777252080380602</v>
       </c>
       <c r="H51" s="4">
-        <v>0.59532011542161001</v>
+        <v>0.38221964698592298</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>12</v>
@@ -1836,22 +1836,22 @@
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4">
-        <v>0.59429101678572305</v>
+        <v>0.37948009041070102</v>
       </c>
       <c r="D52" s="4">
-        <v>0.57184699999852995</v>
+        <v>0.30824629505248402</v>
       </c>
       <c r="E52" s="4">
-        <v>0.538701458038363</v>
+        <v>0.18451864773368601</v>
       </c>
       <c r="F52" s="4">
-        <v>0.51361819027223399</v>
+        <v>0.35952810026638399</v>
       </c>
       <c r="G52" s="4">
-        <v>0.176926048721611</v>
+        <v>0.57656385762612195</v>
       </c>
       <c r="H52" s="4">
-        <v>0.60624999678270097</v>
+        <v>0.41033833323879099</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>12</v>
@@ -1863,22 +1863,22 @@
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4">
-        <v>0.60478587119810701</v>
+        <v>0.41478499647957401</v>
       </c>
       <c r="D53" s="4">
-        <v>0.55692093460015302</v>
+        <v>0.273819411907684</v>
       </c>
       <c r="E53" s="4">
-        <v>0.53662040581620796</v>
+        <v>0.20511231434347099</v>
       </c>
       <c r="F53" s="4">
-        <v>0.41251743051635098</v>
+        <v>0.35725192762036101</v>
       </c>
       <c r="G53" s="4">
-        <v>0.18711939653630999</v>
+        <v>0.53800467857345702</v>
       </c>
       <c r="H53" s="4">
-        <v>0.608992503428881</v>
+        <v>0.41818545381688899</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>12</v>
@@ -1890,22 +1890,22 @@
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4">
-        <v>0.59982230585310403</v>
+        <v>0.40488929210700503</v>
       </c>
       <c r="D54" s="4">
-        <v>0.55886813015453196</v>
+        <v>0.284204180338818</v>
       </c>
       <c r="E54" s="4">
-        <v>0.52891125336553102</v>
+        <v>0.185574688262647</v>
       </c>
       <c r="F54" s="4">
-        <v>0.42233333879610202</v>
+        <v>0.43329384022449202</v>
       </c>
       <c r="G54" s="4">
-        <v>0.20176399840951001</v>
+        <v>0.59399985342990003</v>
       </c>
       <c r="H54" s="4">
-        <v>0.608027484127736</v>
+        <v>0.42276411840953099</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>12</v>
@@ -1917,22 +1917,22 @@
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4">
-        <v>0.58296083345368299</v>
+        <v>0.34351572482849302</v>
       </c>
       <c r="D55" s="4">
-        <v>0.57580885309615704</v>
+        <v>0.324320606003838</v>
       </c>
       <c r="E55" s="4">
-        <v>0.53024811205107403</v>
+        <v>0.17328590856474099</v>
       </c>
       <c r="F55" s="4">
-        <v>0.390560358456433</v>
+        <v>0.274899573716684</v>
       </c>
       <c r="G55" s="4">
-        <v>0.18826826802813201</v>
+        <v>0.57111514602940805</v>
       </c>
       <c r="H55" s="4">
-        <v>0.59843033368090504</v>
+        <v>0.38390328410873098</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>12</v>
@@ -1944,22 +1944,22 @@
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
-        <v>0.58366836959637503</v>
+        <v>0.356450792230879</v>
       </c>
       <c r="D56" s="4">
-        <v>0.55806194598137004</v>
+        <v>0.28502821525831101</v>
       </c>
       <c r="E56" s="4">
-        <v>0.52486211712574404</v>
+        <v>0.180306258365519</v>
       </c>
       <c r="F56" s="4">
-        <v>0.397885545797242</v>
+        <v>0.237385368407945</v>
       </c>
       <c r="G56" s="4">
-        <v>0.18833868821453201</v>
+        <v>0.52981059064036895</v>
       </c>
       <c r="H56" s="4">
-        <v>0.58932955939641296</v>
+        <v>0.36533413135586001</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>12</v>
@@ -1971,22 +1971,22 @@
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4">
-        <v>0.61203679733669902</v>
+        <v>0.43281108395714202</v>
       </c>
       <c r="D57" s="4">
-        <v>0.57219387721752901</v>
+        <v>0.29437456029857301</v>
       </c>
       <c r="E57" s="4">
-        <v>0.55040897284596502</v>
+        <v>0.21187741861277301</v>
       </c>
       <c r="F57" s="4">
-        <v>0.35107241625915098</v>
+        <v>0.431413499799568</v>
       </c>
       <c r="G57" s="4">
-        <v>0.16385150442391599</v>
+        <v>0.55586029222260802</v>
       </c>
       <c r="H57" s="4">
-        <v>0.61816840196564105</v>
+        <v>0.44600218959058702</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>12</v>
@@ -1998,22 +1998,22 @@
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4">
-        <v>0.58533220879896697</v>
+        <v>0.32709607551084902</v>
       </c>
       <c r="D58" s="4">
-        <v>0.57564596870824203</v>
+        <v>0.292690957083592</v>
       </c>
       <c r="E58" s="4">
-        <v>0.54083935544092299</v>
+        <v>0.15176566270170699</v>
       </c>
       <c r="F58" s="4">
-        <v>0.378488807475372</v>
+        <v>0.29343186847597902</v>
       </c>
       <c r="G58" s="4">
-        <v>0.16654392362525799</v>
+        <v>0.60277703908864599</v>
       </c>
       <c r="H58" s="4">
-        <v>0.596333187372586</v>
+        <v>0.35762407847031302</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>12</v>
@@ -2025,15 +2025,15 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="8"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
@@ -2064,27 +2064,27 @@
       </c>
       <c r="C64" s="2">
         <f>AVERAGE(C7:C20)</f>
-        <v>0.62958872156559387</v>
+        <v>0.47616480083698054</v>
       </c>
       <c r="D64" s="2">
         <f>AVERAGE(D7:D20)</f>
-        <v>0.57358620776970703</v>
+        <v>0.19548995244333384</v>
       </c>
       <c r="E64" s="2">
         <f t="shared" ref="E64:H64" si="0">AVERAGE(E7:E20)</f>
-        <v>0.57681751529101266</v>
+        <v>0.20328970772403329</v>
       </c>
       <c r="F64" s="2">
         <f t="shared" si="0"/>
-        <v>0.39397278353478404</v>
+        <v>0.69073631447588635</v>
       </c>
       <c r="G64" s="2">
         <f t="shared" si="0"/>
-        <v>0.12299719136048382</v>
+        <v>0.61718739623536834</v>
       </c>
       <c r="H64" s="2">
         <f t="shared" si="0"/>
-        <v>0.63040150730534594</v>
+        <v>0.47629877271120769</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
@@ -2093,27 +2093,27 @@
       </c>
       <c r="C65" s="2">
         <f>AVERAGE(C21:C32)</f>
-        <v>0.65173132723846428</v>
+        <v>0.55823417255102503</v>
       </c>
       <c r="D65" s="2">
         <f t="shared" ref="D65:H65" si="1">AVERAGE(D21:D32)</f>
-        <v>0.54858905567106886</v>
+        <v>0.25756058733594395</v>
       </c>
       <c r="E65" s="2">
         <f t="shared" si="1"/>
-        <v>0.5401454415730359</v>
+        <v>0.22748430744491852</v>
       </c>
       <c r="F65" s="2">
         <f t="shared" si="1"/>
-        <v>0.54796446851937375</v>
+        <v>0.42105952741954389</v>
       </c>
       <c r="G65" s="2">
         <f t="shared" si="1"/>
-        <v>0.21037888748223044</v>
+        <v>0.62031556967590418</v>
       </c>
       <c r="H65" s="2">
         <f t="shared" si="1"/>
-        <v>0.65201446465962276</v>
+        <v>0.5582353987111891</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
@@ -2122,27 +2122,27 @@
       </c>
       <c r="C66" s="2">
         <f>AVERAGE(C33:C39)</f>
-        <v>0.54788587114165765</v>
+        <v>0.27482033719914961</v>
       </c>
       <c r="D66" s="2">
         <f t="shared" ref="D66:H66" si="2">AVERAGE(D33:D39)</f>
-        <v>0.56602266276580993</v>
+        <v>0.32382350115388459</v>
       </c>
       <c r="E66" s="2">
         <f t="shared" si="2"/>
-        <v>0.5028891058013597</v>
+        <v>0.14689885844316314</v>
       </c>
       <c r="F66" s="2">
         <f t="shared" si="2"/>
-        <v>0.28764228512572182</v>
+        <v>0.21084955217650744</v>
       </c>
       <c r="G66" s="2">
         <f t="shared" si="2"/>
-        <v>0.21284118284399942</v>
+        <v>0.57729103924551772</v>
       </c>
       <c r="H66" s="2">
         <f t="shared" si="2"/>
-        <v>0.57148170022870559</v>
+        <v>0.33248163479635312</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
@@ -2151,27 +2151,27 @@
       </c>
       <c r="C67" s="2">
         <f>AVERAGE(C40:C58)</f>
-        <v>0.5910262212942996</v>
+        <v>0.37164673669676146</v>
       </c>
       <c r="D67" s="2">
         <f t="shared" ref="D67:H67" si="3">AVERAGE(D40:D58)</f>
-        <v>0.56887783291584337</v>
+        <v>0.30715563865101647</v>
       </c>
       <c r="E67" s="2">
         <f t="shared" si="3"/>
-        <v>0.53355714482916861</v>
+        <v>0.18743448659547091</v>
       </c>
       <c r="F67" s="2">
         <f t="shared" si="3"/>
-        <v>0.37579698356886143</v>
+        <v>0.27739797710995129</v>
       </c>
       <c r="G67" s="2">
         <f t="shared" si="3"/>
-        <v>0.17584546935859202</v>
+        <v>0.54300830220079654</v>
       </c>
       <c r="H67" s="2">
         <f t="shared" si="3"/>
-        <v>0.5998051572433345</v>
+        <v>0.39403205699057914</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
@@ -2180,15 +2180,15 @@
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="8"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="10"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
@@ -2219,27 +2219,27 @@
       </c>
       <c r="C73" s="2">
         <f>_xlfn.STDEV.S(C7:C20)</f>
-        <v>1.0436593170054929E-2</v>
+        <v>2.8778640817077844E-2</v>
       </c>
       <c r="D73" s="2">
         <f t="shared" ref="D73:H73" si="4">_xlfn.STDEV.S(D7:D20)</f>
-        <v>1.5863318425936128E-2</v>
+        <v>1.6284505557921301E-2</v>
       </c>
       <c r="E73" s="2">
         <f t="shared" si="4"/>
-        <v>1.5682453236276574E-2</v>
+        <v>1.4373216275066516E-2</v>
       </c>
       <c r="F73" s="2">
         <f t="shared" si="4"/>
-        <v>0.10490129410172035</v>
+        <v>0.15158184364787911</v>
       </c>
       <c r="G73" s="2">
         <f t="shared" si="4"/>
-        <v>3.2692634592970594E-2</v>
+        <v>3.1994387533010801E-2</v>
       </c>
       <c r="H73" s="2">
         <f t="shared" si="4"/>
-        <v>1.0312356923708988E-2</v>
+        <v>2.8718892442722618E-2</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
@@ -2248,27 +2248,27 @@
       </c>
       <c r="C74" s="2">
         <f>_xlfn.STDEV.S(C21:C32)</f>
-        <v>7.6860454409494999E-3</v>
+        <v>2.4751414849738501E-2</v>
       </c>
       <c r="D74" s="2">
         <f t="shared" ref="D74:H74" si="5">_xlfn.STDEV.S(D21:D32)</f>
-        <v>1.2175027025941056E-2</v>
+        <v>2.1614976369225866E-2</v>
       </c>
       <c r="E74" s="2">
         <f t="shared" si="5"/>
-        <v>1.5741082139259038E-2</v>
+        <v>1.0628522549221923E-2</v>
       </c>
       <c r="F74" s="2">
         <f t="shared" si="5"/>
-        <v>4.8373945954932218E-2</v>
+        <v>9.4036037042742465E-2</v>
       </c>
       <c r="G74" s="2">
         <f t="shared" si="5"/>
-        <v>3.1881025205031811E-2</v>
+        <v>1.5157223659621155E-2</v>
       </c>
       <c r="H74" s="2">
         <f t="shared" si="5"/>
-        <v>7.6430130454904991E-3</v>
+        <v>2.4751304935360107E-2</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
@@ -2277,27 +2277,27 @@
       </c>
       <c r="C75" s="2">
         <f>_xlfn.STDEV.S(C33:C39)</f>
-        <v>1.6553214846302171E-2</v>
+        <v>2.2778220978597882E-2</v>
       </c>
       <c r="D75" s="2">
         <f t="shared" ref="D75:H75" si="6">_xlfn.STDEV.S(D33:D39)</f>
-        <v>9.855211679965295E-3</v>
+        <v>3.0966616443402373E-2</v>
       </c>
       <c r="E75" s="2">
         <f t="shared" si="6"/>
-        <v>2.6705595340711194E-2</v>
+        <v>1.0943241909631276E-2</v>
       </c>
       <c r="F75" s="2">
         <f t="shared" si="6"/>
-        <v>2.3963669752918044E-2</v>
+        <v>9.6430400995994488E-3</v>
       </c>
       <c r="G75" s="2">
         <f t="shared" si="6"/>
-        <v>3.8544773049528351E-2</v>
+        <v>1.2891218288457382E-2</v>
       </c>
       <c r="H75" s="2">
         <f t="shared" si="6"/>
-        <v>1.0120588050311768E-2</v>
+        <v>3.0079221695662069E-2</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
@@ -2306,27 +2306,27 @@
       </c>
       <c r="C76" s="2">
         <f>_xlfn.STDEV.S(C40:C58)</f>
-        <v>9.0329990325025387E-3</v>
+        <v>3.6369505786743292E-2</v>
       </c>
       <c r="D76" s="2">
         <f t="shared" ref="D76:H76" si="7">_xlfn.STDEV.S(D40:D58)</f>
-        <v>8.6398143850445527E-3</v>
+        <v>2.3915745158582139E-2</v>
       </c>
       <c r="E76" s="2">
         <f t="shared" si="7"/>
-        <v>9.3555547681530155E-3</v>
+        <v>2.19710226435339E-2</v>
       </c>
       <c r="F76" s="2">
         <f t="shared" si="7"/>
-        <v>6.8406661549376524E-2</v>
+        <v>8.0696967892832441E-2</v>
       </c>
       <c r="G76" s="2">
         <f t="shared" si="7"/>
-        <v>2.2193702118784381E-2</v>
+        <v>4.3859080675348529E-2</v>
       </c>
       <c r="H76" s="2">
         <f t="shared" si="7"/>
-        <v>8.2172078630261755E-3</v>
+        <v>3.3188265287133055E-2</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
@@ -2335,10 +2335,10 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C81" s="9"/>
+      <c r="C81" s="11"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
@@ -2432,69 +2432,69 @@
       <c r="B92" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C92" s="10">
-        <v>0.65513999999999994</v>
-      </c>
-      <c r="D92" s="10">
-        <v>0.52866999999999997</v>
-      </c>
-      <c r="E92" s="10">
-        <v>0.52471000000000001</v>
-      </c>
-      <c r="F92" s="10">
-        <v>0.50412999999999997</v>
-      </c>
-      <c r="G92" s="10">
-        <v>0.24656</v>
-      </c>
-      <c r="H92" s="10">
-        <v>0.65522999999999998</v>
-      </c>
-      <c r="I92" s="10" t="s">
+      <c r="C92" s="6">
+        <v>0.50888999999999995</v>
+      </c>
+      <c r="D92" s="6">
+        <v>0.25095000000000001</v>
+      </c>
+      <c r="E92" s="6">
+        <v>0.24476000000000001</v>
+      </c>
+      <c r="F92" s="6">
+        <v>0.63861999999999997</v>
+      </c>
+      <c r="G92" s="6">
+        <v>0.56605000000000005</v>
+      </c>
+      <c r="H92" s="6">
+        <v>0.50917000000000001</v>
+      </c>
+      <c r="I92" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B94" s="2"/>
-      <c r="C94" s="10">
+      <c r="C94" s="6">
         <f>1/SQRT(2*3.14*C73)*EXP(-(($C$92-C64)^2/(2*C73^2)))</f>
-        <v>0.19506850121150876</v>
-      </c>
-      <c r="D94" s="10">
+        <v>1.2322452729914983</v>
+      </c>
+      <c r="D94" s="6">
         <f t="shared" ref="D94:H94" si="9">1/SQRT(2*3.14*D73)*EXP(-((D92-D64)^2/(2*D73^2)))</f>
-        <v>5.7534572024018474E-2</v>
-      </c>
-      <c r="E94" s="10">
+        <v>9.4731748018397222E-3</v>
+      </c>
+      <c r="E94" s="6">
         <f t="shared" si="9"/>
-        <v>1.2764019819183398E-2</v>
-      </c>
-      <c r="F94" s="10">
+        <v>5.1828330393540442E-2</v>
+      </c>
+      <c r="F94" s="6">
         <f t="shared" si="9"/>
-        <v>0.70986819943296897</v>
-      </c>
-      <c r="G94" s="10">
+        <v>0.96611245483628017</v>
+      </c>
+      <c r="G94" s="6">
         <f t="shared" si="9"/>
-        <v>1.7453371220843041E-3</v>
-      </c>
-      <c r="H94" s="10">
+        <v>0.62194268113517182</v>
+      </c>
+      <c r="H94" s="6">
         <f t="shared" si="9"/>
-        <v>0.21656694359735937</v>
-      </c>
-      <c r="I94" s="10">
+        <v>1.2230859094885065</v>
+      </c>
+      <c r="I94" s="6">
         <f>C94*D94*E94*F94*G94*H94*C83</f>
-        <v>1.0348500152579097E-8</v>
+        <v>1.1970702232796139E-4</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -2502,33 +2502,33 @@
         <v>10</v>
       </c>
       <c r="B95" s="2"/>
-      <c r="C95" s="10">
+      <c r="C95" s="6">
         <f>1/SQRT(2*3.14*C74)*EXP(-((C92-C65)^2/(2*C74^2)))</f>
-        <v>4.125339924794158</v>
-      </c>
-      <c r="D95" s="10">
+        <v>0.34768820110936816</v>
+      </c>
+      <c r="D95" s="6">
         <f t="shared" ref="D95:H95" si="10">1/SQRT(2*3.14*D74)*EXP(-((D92-D65)^2/(2*D74^2)))</f>
-        <v>0.94852759408125953</v>
-      </c>
-      <c r="E95" s="10">
+        <v>2.5901928256444129</v>
+      </c>
+      <c r="E95" s="6">
         <f t="shared" si="10"/>
-        <v>1.9665562031240706</v>
-      </c>
-      <c r="F95" s="10">
+        <v>1.0329774934344091</v>
+      </c>
+      <c r="F95" s="6">
         <f t="shared" si="10"/>
-        <v>1.2033992231496013</v>
-      </c>
-      <c r="G95" s="10">
+        <v>8.9547432649698611E-2</v>
+      </c>
+      <c r="G95" s="6">
         <f t="shared" si="10"/>
-        <v>1.1737593755739766</v>
-      </c>
-      <c r="H95" s="10">
+        <v>5.3380982846542233E-3</v>
+      </c>
+      <c r="H95" s="6">
         <f t="shared" si="10"/>
-        <v>4.177846243369868</v>
-      </c>
-      <c r="I95" s="10">
+        <v>0.35555542445988209</v>
+      </c>
+      <c r="I95" s="6">
         <f t="shared" ref="I95:I96" si="11">C95*D95*E95*F95*G95*H95*C84</f>
-        <v>10.479371305075142</v>
+        <v>3.6486972072114774E-5</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -2536,33 +2536,33 @@
         <v>11</v>
       </c>
       <c r="B96" s="2"/>
-      <c r="C96" s="10">
+      <c r="C96" s="6">
         <f>1/SQRT(2*3.14*C75)*EXP(-((C92-C66)^2/(2*C75^2)))</f>
-        <v>2.3730073929175781E-9</v>
-      </c>
-      <c r="D96" s="10">
+        <v>3.1060747625563767E-23</v>
+      </c>
+      <c r="D96" s="6">
         <f t="shared" ref="D96:H96" si="12">1/SQRT(2*3.14*D75)*EXP(-((D92-D66)^2/(2*D75^2)))</f>
-        <v>3.0537039854444874E-3</v>
-      </c>
-      <c r="E96" s="10">
+        <v>0.14223784921091204</v>
+      </c>
+      <c r="E96" s="6">
         <f t="shared" si="12"/>
-        <v>1.7488133483179862</v>
-      </c>
-      <c r="F96" s="10">
+        <v>1.644841146864264E-17</v>
+      </c>
+      <c r="F96" s="6">
         <f t="shared" si="12"/>
-        <v>4.8886008779374358E-18</v>
-      </c>
-      <c r="G96" s="10">
+        <v>0</v>
+      </c>
+      <c r="G96" s="6">
         <f t="shared" si="12"/>
-        <v>1.3863138104430501</v>
-      </c>
-      <c r="H96" s="10">
+        <v>2.4030396575896442</v>
+      </c>
+      <c r="H96" s="6">
         <f t="shared" si="12"/>
-        <v>5.3575998442429177E-15</v>
-      </c>
-      <c r="I96" s="10">
+        <v>7.3996219453817989E-8</v>
+      </c>
+      <c r="I96" s="6">
         <f t="shared" si="11"/>
-        <v>6.1941338722768702E-44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -2570,33 +2570,33 @@
         <v>12</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="C97" s="10">
+      <c r="C97" s="6">
         <f>1/SQRT(2*3.14*C76)*EXP(-((C92-C67)^2/(2*C76^2)))</f>
-        <v>4.8274016316523069E-11</v>
-      </c>
-      <c r="D97" s="10">
+        <v>1.692365289974494E-3</v>
+      </c>
+      <c r="D97" s="6">
         <f t="shared" ref="D97:H97" si="13">1/SQRT(2*3.14*D76)*EXP(-((D92-D67)^2/(2*D76^2)))</f>
-        <v>8.5085641782838519E-5</v>
-      </c>
-      <c r="E97" s="10">
+        <v>0.16305245674903074</v>
+      </c>
+      <c r="E97" s="6">
         <f t="shared" si="13"/>
-        <v>2.6381397860140945</v>
-      </c>
-      <c r="F97" s="10">
+        <v>8.9503279323834797E-2</v>
+      </c>
+      <c r="F97" s="6">
         <f t="shared" si="13"/>
-        <v>0.2625566059069257</v>
-      </c>
-      <c r="G97" s="10">
+        <v>6.2603582915067273E-5</v>
+      </c>
+      <c r="G97" s="6">
         <f t="shared" si="13"/>
-        <v>1.6726111216080697E-2</v>
-      </c>
-      <c r="H97" s="10">
+        <v>1.6598072759750484</v>
+      </c>
+      <c r="H97" s="6">
         <f t="shared" si="13"/>
-        <v>5.8159255446786278E-10</v>
-      </c>
-      <c r="I97" s="10">
+        <v>5.3337183658718626E-3</v>
+      </c>
+      <c r="I97" s="6">
         <f>C97*D97*E97*F97*G97*H97*C86</f>
-        <v>1.0112407000931682E-26</v>
+        <v>5.001469156232589E-12</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="I99">
         <f>MAX(I94:I97)</f>
-        <v>10.479371305075142</v>
+        <v>1.1970702232796139E-4</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">

--- a/citrabuahnagaNaiveBayes/EXCEL HITUNG MANUAL PROJECT/stepHitungManualKlasifikasiBuahNaga.xlsx
+++ b/citrabuahnagaNaiveBayes/EXCEL HITUNG MANUAL PROJECT/stepHitungManualKlasifikasiBuahNaga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\MATLAB\Semester_5_Citra_Visual_Buah_Naga\citrabuahnagaNaiveBayes\EXCEL HITUNG MANUAL PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03A7282-78D7-44F2-A065-3FAE14C71A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42993B21-FBAE-4C6F-8A55-A205406AE5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
